--- a/src/assets/excel/WagesReport.xlsx
+++ b/src/assets/excel/WagesReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Sr No</t>
   </si>
@@ -133,45 +133,21 @@
     <t>CTC (April 15)</t>
   </si>
   <si>
-    <t>Mangesh</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
-    <t>Purva</t>
-  </si>
-  <si>
     <t>Senior Software Engineer</t>
   </si>
   <si>
-    <t>Mayuri</t>
-  </si>
-  <si>
     <t>Engineer Trainee</t>
   </si>
   <si>
-    <t>Nishant</t>
-  </si>
-  <si>
-    <t>Neeraj</t>
-  </si>
-  <si>
     <t>Manager Software</t>
   </si>
   <si>
-    <t>Nirmal</t>
-  </si>
-  <si>
     <t>Engineer Software</t>
   </si>
   <si>
-    <t>Nikhil</t>
-  </si>
-  <si>
-    <t>Sujata</t>
-  </si>
-  <si>
     <t>HR Manager</t>
   </si>
   <si>
@@ -185,6 +161,54 @@
   </si>
   <si>
     <t>Ded</t>
+  </si>
+  <si>
+    <t>Aditi Kulkarni</t>
+  </si>
+  <si>
+    <t>Kunal Jagtap</t>
+  </si>
+  <si>
+    <t>Harshad Yadav</t>
+  </si>
+  <si>
+    <t>Rohan Patankar</t>
+  </si>
+  <si>
+    <t>Vedant Shah</t>
+  </si>
+  <si>
+    <t>Shreya Deshpande</t>
+  </si>
+  <si>
+    <t>Parth Salunkhe</t>
+  </si>
+  <si>
+    <t>Juhi Wagh</t>
+  </si>
+  <si>
+    <t>ID121</t>
+  </si>
+  <si>
+    <t>ID529</t>
+  </si>
+  <si>
+    <t>ID204</t>
+  </si>
+  <si>
+    <t>ID144</t>
+  </si>
+  <si>
+    <t>ID150</t>
+  </si>
+  <si>
+    <t>ID364</t>
+  </si>
+  <si>
+    <t>ID643</t>
+  </si>
+  <si>
+    <t>ID1198</t>
   </si>
 </sst>
 </file>
@@ -285,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -333,6 +357,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,12 +670,12 @@
   <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
@@ -691,13 +718,13 @@
       <c r="D1" s="6"/>
       <c r="E1" s="8"/>
       <c r="F1" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -706,12 +733,12 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="R1" s="10"/>
       <c r="S1" s="2"/>
       <c r="T1" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -857,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1005</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E3" s="2">
         <v>30</v>
@@ -976,13 +1003,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1006</v>
+        <v>50</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>30</v>
@@ -1095,13 +1122,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1007</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2">
         <v>30</v>
@@ -1214,13 +1241,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1008</v>
+        <v>52</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <v>29</v>
@@ -1333,13 +1360,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1009</v>
+        <v>53</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
@@ -1452,13 +1479,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1010</v>
+        <v>54</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2">
         <v>30</v>
@@ -1571,13 +1598,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1011</v>
+        <v>55</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>30</v>
@@ -1690,13 +1717,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1012</v>
+        <v>56</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
         <v>30</v>
